--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aser\eclipse-workspace\Project_ServiceManagement\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aser\git\Project_ServiceManagement\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -173,13 +173,34 @@
   </si>
   <si>
     <t>Hai…!</t>
+  </si>
+  <si>
+    <t>Email_Subject</t>
+  </si>
+  <si>
+    <t>Subject for email</t>
+  </si>
+  <si>
+    <t>EmailMessage</t>
+  </si>
+  <si>
+    <t>Sending a mail</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Quick Email</t>
+  </si>
+  <si>
+    <t>QuickEmail_Text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +234,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,6 +282,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,23 +581,23 @@
     <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.125" style="1" customWidth="1"/>
     <col min="18" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="20.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="1" customWidth="1"/>
     <col min="25" max="25" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -636,8 +664,17 @@
       <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -704,22 +741,49 @@
       <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>3455</v>
       </c>
+      <c r="M3" s="8"/>
+      <c r="Q3"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>188</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Username</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>QuickEmail_Text</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>563-487-896</t>
+  </si>
+  <si>
+    <t>Service_Charge</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>not working</t>
   </si>
 </sst>
 </file>
@@ -563,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,11 +614,13 @@
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
     <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
     <col min="24" max="24" width="13.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="25" max="25" width="14.125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="7" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,8 +696,20 @@
       <c r="Y1" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="Z1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -750,8 +785,20 @@
       <c r="Y2" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -764,7 +811,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,15 +820,15 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="4">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="M6" s="8"/>
     </row>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Username</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>not working</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Nokia</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,12 +621,12 @@
     <col min="23" max="23" width="13.375" style="1" customWidth="1"/>
     <col min="24" max="24" width="13.875" style="1" customWidth="1"/>
     <col min="25" max="25" width="14.125" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="7" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="26" max="28" width="9" style="1"/>
+    <col min="29" max="29" width="7" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,16 +706,19 @@
         <v>53</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -788,17 +797,20 @@
       <c r="Z2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="1">
         <v>1000</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,7 +823,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,10 +832,10 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
